--- a/Masjid/output/SPMD03775/RekodBantuan.xlsx
+++ b/Masjid/output/SPMD03775/RekodBantuan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
   <si>
     <t>MASJID JAMEK SUNGAI NIBONG BESAR</t>
   </si>
@@ -83,7 +83,9 @@
     <t>BERKAHWIN</t>
   </si>
   <si>
-    <t>1-10-25 LRG AZIZ IBRAHIM INBONG INDAH BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+    <t>1-10-25 LRG AZIZ IBRAHIM,
+INBONG INDAH,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
   </si>
   <si>
     <t>Bekalan Asas</t>
@@ -95,6 +97,9 @@
     <t>pendapatan bulanan hanya cukup-cukup makan</t>
   </si>
   <si>
+    <t>2023-06-25</t>
+  </si>
+  <si>
     <t>AHAMED ZAKI BIN HAJI MOHD</t>
   </si>
   <si>
@@ -105,6 +110,670 @@
   </si>
   <si>
     <t>Bantuan permulaan anak masuk ke IPT</t>
+  </si>
+  <si>
+    <t>2023-06-22</t>
+  </si>
+  <si>
+    <t>AHMAD RIDZUAN BIN ZULKIFLI</t>
+  </si>
+  <si>
+    <t>01115066137</t>
+  </si>
+  <si>
+    <t>BLOK 2, PESARA NIPAH ,
+TAMAN LIP SIN,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>SUMBANGAN ONE-OFF,HARI RAYA ,GURU QURAN DAN GURU TAKMIR</t>
+  </si>
+  <si>
+    <t>2023-05-20</t>
+  </si>
+  <si>
+    <t>TUNAI</t>
+  </si>
+  <si>
+    <t>MASHITAH BINTI HAJI IDRIS</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>2-4-12, PESARA NIPAH ,
+SUNGAI NIBONG,
+11900 BAYAN LEPAS.,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>MASHITOH BINTI RAMLI</t>
+  </si>
+  <si>
+    <t>5-2-12, KRYSTAL IDAMAN,
+LEBUH BUKIT KECIL 6,
+11600 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>MUHAMAD ASYRAF ADLI BIN HASSAN</t>
+  </si>
+  <si>
+    <t>BUJANG</t>
+  </si>
+  <si>
+    <t>2-4-12A, PESARA NIPAH,
+TAMAN LIP SIN,
+SUNGAI NIBONG,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOHAMED HILMI AKMAL BIN MOHAMED IQBAL </t>
+  </si>
+  <si>
+    <t>01128656485</t>
+  </si>
+  <si>
+    <t>2-3-3 MUTIARA ANGGUN,
+LEBUH PANTAI JERJAK 2,
+11900 BAYAN LEPAS. ,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>MOHAMAD FIRDAUS BIN AYUB</t>
+  </si>
+  <si>
+    <t>NO.19, PERSIARAN PANTAI JEREJAK,
+TAMAN SERI ANGGUN,
+SUNGAI NIBONG,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>NOR HAZWANI BINTI LOKMAN KARSIM</t>
+  </si>
+  <si>
+    <t>030604101660</t>
+  </si>
+  <si>
+    <t>NO.36, PERSIARAN PANTAI JEREJAK,
+TAMAN SERI ANGGUN,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>NOOR AZIZ BIN BAHAROM</t>
+  </si>
+  <si>
+    <t>5-9-23, KRYSTAL IDAMAN,
+LEBUH BUKIT KECIL 6,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>RAHMAH BINTI KADIR</t>
+  </si>
+  <si>
+    <t>54B, BLOK A , MK12, SUNGAI NIBONG BESAR,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>IRMAN KHALIF BIN MOHAMED</t>
+  </si>
+  <si>
+    <t>NO.36, PERSIARAN PANTAI JEREJAK,
+TAMAN SERI ANGGUN,
+SUNGAI NIBONG,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>ISMAIL BIN ADNAN</t>
+  </si>
+  <si>
+    <t>2-1-2, PERSIARAN PANTAI JEREJAK,
+TAMAN MAS, 11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMZI BIN ABU BAKAR </t>
+  </si>
+  <si>
+    <t>0124790927</t>
+  </si>
+  <si>
+    <t>5-5-21, KRISTAL IDAMAN,
+LEBUH BUKIT KECIL 6,
+11900 BAYAN LEPAS.,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>MUHAMAD FARID B UMOR PAROK</t>
+  </si>
+  <si>
+    <t>0162760819</t>
+  </si>
+  <si>
+    <t>2-12-7, MUTIARA ANGGUN, LEBUH PANTAI JERJAK 2, SG NIBONG, 11900, BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>SUMBANGAN TAHUNAN PEGAWAI MASJID-HARI RAYA</t>
+  </si>
+  <si>
+    <t>2023-04-15</t>
+  </si>
+  <si>
+    <t>SHAIK AZHAR BIN SHAIK ALWI</t>
+  </si>
+  <si>
+    <t>0164550408</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NIPAH,
+A2-1-4 HALAMAN AREKA,
+LEBUH NIPAH,
+SUNGAI NIBONG.,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>AZMAN BIN SA'AD</t>
+  </si>
+  <si>
+    <t>0174079727</t>
+  </si>
+  <si>
+    <t>3-19-05, ARA GREEN APARTMENT,
+HALAMAN SUNGAI ARA,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>SAMIUN BIN BIDIN</t>
+  </si>
+  <si>
+    <t>0139333055</t>
+  </si>
+  <si>
+    <t>NO 5 LORONG NIPAH 15 TAMAN LIP SIN 11900 BAYAN LEPAS ,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>ABDUL RAHMAN BIN ABDUL RAZAK</t>
+  </si>
+  <si>
+    <t>0174868376</t>
+  </si>
+  <si>
+    <t>HALAMAN KENANGA,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>ABDUL RAZAK BIN OSMAN</t>
+  </si>
+  <si>
+    <t>2-13-3, MUTIARA ANGGUN, 
+LEBUH PANTAI JEREJAK 2, 
+11900 BAYAN LEPAS.,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>DARI ZAKAT NEGERI PULAU PINANG-BANTUAN HARI RAYA.</t>
+  </si>
+  <si>
+    <t>AMZAH BINTI MAT</t>
+  </si>
+  <si>
+    <t>046462969</t>
+  </si>
+  <si>
+    <t>JANDA</t>
+  </si>
+  <si>
+    <t>NO.3730, MK 12, BUKIT KECIL , SUNGAI NIBONG BESAR,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>CHE MAH BINTI KASA</t>
+  </si>
+  <si>
+    <t>10, LORONG NIPAH 12,
+TAMAN LIP SIN,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>ROHANI BINTI PARITI</t>
+  </si>
+  <si>
+    <t>0174000575</t>
+  </si>
+  <si>
+    <t>BLOK 2-2-4, MUTIARA ANGGUN, SUNGAI NIBONG BESAR, 11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>SITI MINAH BINTI CHE MAT</t>
+  </si>
+  <si>
+    <t>0164919425</t>
+  </si>
+  <si>
+    <t>56, BLOK A, MK12, SUNGAI NIBONG BESAR, PULAU PINANG.,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>ZAINOL BIN SAAD</t>
+  </si>
+  <si>
+    <t>0125899201</t>
+  </si>
+  <si>
+    <t>NO.7-11-G, MUKIM 13, SUNGAI DUA.
+SUNGAI NIBONG BESAR, PULAU PINANG.,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>ZAINUL ABIDIN BIN MOHD DALI</t>
+  </si>
+  <si>
+    <t>01111319501</t>
+  </si>
+  <si>
+    <t>2-4-12, MUTIARA ANGGUN, LEBUH PANTAI JEREJAK 2, SUNGAI NIBONG BESAR, PULAU PINANG.,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>ABDUL AZIR BIN AHMAD</t>
+  </si>
+  <si>
+    <t>1-4-7, TAMAN MAS, PERSIARAN PANTAI JEREJAK, 11900 BAYAN LEPAS, PULAU PINANG,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>AZIZAH BINTI ARSAMANWI</t>
+  </si>
+  <si>
+    <t>01169980974</t>
+  </si>
+  <si>
+    <t>NO.225, BLOK A, MK12, SUNGAI NIBONG BESAR, 11900 PULAU PINANG,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>CHEK BINTI HAMIDON</t>
+  </si>
+  <si>
+    <t>0105618304</t>
+  </si>
+  <si>
+    <t>NO.9-9-4, MUTIARA ANGGUN, LEBUH PANTAI JEREJAK 2,
+11900 SUNGAI NIBONG BESAR, PULAU PINANG,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>FATIMAH BINTI HUSSAIN</t>
+  </si>
+  <si>
+    <t>0183207789</t>
+  </si>
+  <si>
+    <t>BLOK 1-8-17, FLAT NIBONG INDAH , LORONG AZIZ IBRAHIM,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>HASNAH BINTI ALI</t>
+  </si>
+  <si>
+    <t>0184632048</t>
+  </si>
+  <si>
+    <t>382 BLOK A , MK12 SUNGAI NIBONG BESAR, PULAU PINANG,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>IDROS BIN IBRAHIM</t>
+  </si>
+  <si>
+    <t>01124231806</t>
+  </si>
+  <si>
+    <t>NO.343, BLOK A, MK12 SUNGAI NIBONG BESAR, PULAU PINANG,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>ILIAS BIN SAARI</t>
+  </si>
+  <si>
+    <t>0134925088</t>
+  </si>
+  <si>
+    <t>NO.257, BLOK A, MK 12, SUNGAI NIBONG BESAR, PULAU PINANG.,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>JALAIHA BEE BINTI NAINA MOHD</t>
+  </si>
+  <si>
+    <t>01110553425</t>
+  </si>
+  <si>
+    <t>2-5-5, PESARA NIPAH, SUNGAI NIOBNG BESAR, PULAU PINANG,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>JOHARA BEE BEE BINTI ABDULLAH</t>
+  </si>
+  <si>
+    <t>046451384</t>
+  </si>
+  <si>
+    <t>NO.797-S, MK13 JALAN SUNGAI DUA, SUNGAI NIBONG BESAR, PULAU PINANG,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>MD ZAIN BIN HUSSAIN</t>
+  </si>
+  <si>
+    <t>0175847537</t>
+  </si>
+  <si>
+    <t>2-9-5,MUTIARA ANGGUN, LEBUH PANTAI JEREJAK 2, SUNGAI NIBONG BESAR, PULAU PINANG,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>MOHAMAD BARZAH BIN TAPAN</t>
+  </si>
+  <si>
+    <t>0132557843</t>
+  </si>
+  <si>
+    <t>NO.257, BLOK A, MK 12, SUNGAI NIBONG BESAR, PULAU PINANG,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>MOHAMAD HANID BIN NOOR</t>
+  </si>
+  <si>
+    <t>0124192964</t>
+  </si>
+  <si>
+    <t>1-1-1, TAMAN MAS, PERSIARAN PANTAI JEREJAK, SUNGAI NIBONG BESAR, PULAU PINANG.,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>MOHAMAD RAPI BIN BASA MEAH</t>
+  </si>
+  <si>
+    <t>0174903345</t>
+  </si>
+  <si>
+    <t>TINGKAT 4-3, PANGSAPURI WAKAF SITI &amp; HAJJAH NORIJAH, SUNGAI NIBONG,PULAU PINANG.,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>MOHD RAZIZ BIN MOHAMED NOR ALUDIN</t>
+  </si>
+  <si>
+    <t>0138603357</t>
+  </si>
+  <si>
+    <t>NO.54, BLOK A, MK12, SUNGAI NIBONG BESAR, 
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>MUKHTAR BIN BAHARI</t>
+  </si>
+  <si>
+    <t>0164596856</t>
+  </si>
+  <si>
+    <t>NO.111-C, BLOK A, MK12, SUNGAI NIBONG BESAR, PULAU PINANG.,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>NOOR BEE BINTI SK AHMAD</t>
+  </si>
+  <si>
+    <t>11A, LORONG NIPAH 10, TAMAN LIP SIN,SUNGAI NIBONG BESAR, 11900 PULAU PINANG,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>NOOR HAYATI BINTI KHAMARUDDIN</t>
+  </si>
+  <si>
+    <t>01153527345</t>
+  </si>
+  <si>
+    <t>55B, BLOK A, MK12, SUNGAI NIBONG BESAR, PULAU PINANG.,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>NOORIDA BINTI MOHAMED MUSTAPHA</t>
+  </si>
+  <si>
+    <t>BLOK 1-4-9,
+JALAN AZIZ IBRAHIM,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>ROZNI BINTI HARUN</t>
+  </si>
+  <si>
+    <t>NO.382, BLOK A, MK12, SUNGAI NIBONG BESAR, PULAU PINANG.,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>SITI MAZNAH BINTI CHE HASSAN</t>
+  </si>
+  <si>
+    <t>0124216407</t>
+  </si>
+  <si>
+    <t>1-6-25, TAMAN NIBONG INDAH,
+LORONG AZIZ IBRAHIM, 
+SUNGAI NIBONG BESAR, 
+11900 BAYAN LEPAS.,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>YUMAI BIN ULIN</t>
+  </si>
+  <si>
+    <t>0174185248</t>
+  </si>
+  <si>
+    <t>NO.1-3, PANGSAPURI WAKAF SITI &amp; HJH.NORIJAH, SUNGAI NIBONG BESAR, PULAU PINANG.,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>ZAHARAH BINTI MOHD DALI</t>
+  </si>
+  <si>
+    <t>0174360151</t>
+  </si>
+  <si>
+    <t>ZALEHA BINTI ABDUL JALIL</t>
+  </si>
+  <si>
+    <t>0174492543</t>
+  </si>
+  <si>
+    <t>2-10-1, MUTIARA ANGGUN, LEBUH PANTAI JEREJAK 2, SUNGAI NIBONG BESAR, PULAU PINANG.,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>ZALILAH BINTI ABDUL JALIL</t>
+  </si>
+  <si>
+    <t>0134569953</t>
+  </si>
+  <si>
+    <t>MARIAM BINTI MEH</t>
+  </si>
+  <si>
+    <t>101, BLOK A, MK12,
+SUNGAI NIBONG BESAR,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>SUMBANGAN DARI QARYIAH- HARI RAYA</t>
+  </si>
+  <si>
+    <t>SALMIAH BINTI ISMAIL</t>
+  </si>
+  <si>
+    <t>0124955761</t>
+  </si>
+  <si>
+    <t>NO.373, BLOK A, MK12, SUNGAI NIBONG BESAR, PULAU PINANG.,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>PUTEH BINTI DIN</t>
+  </si>
+  <si>
+    <t>2-1-1, PERSIARAN PANTAI JEREJAK,
+TAMAN MAS,
+SUNGAI NIBONG,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>ZAITUN BEE BINTI MOHD ABU BAKAR</t>
+  </si>
+  <si>
+    <t>8-3-1, LEBUH NIPAH 3,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>BIBI RASIDAH BINTI JOHANIS</t>
+  </si>
+  <si>
+    <t>0178281980</t>
+  </si>
+  <si>
+    <t>5-6-17, KRISTAL IDAMAN,
+LEBUH BUKIT KECIL 6,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>AZIZAH BINTI MAT</t>
+  </si>
+  <si>
+    <t>NO.252, BLOK A, MK 12,
+SUNGAI NIBONG BESAR,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>MD HASSAN BIN HUSSIN</t>
+  </si>
+  <si>
+    <t>SEBELAH 98 A, BLOK A, MK 12,
+KG.BUKIT KECIL,
+SUNGAI NIBONG BESAR,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>MD SHARIFF BU BIN ABDUL TAJUL</t>
+  </si>
+  <si>
+    <t>3641, BLOK A, MK 12,
+SUNGAI NIBONG BESAR,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>SALMAH BINTI MD ZAIN</t>
+  </si>
+  <si>
+    <t>66-B, BLOK A, MK 12,
+SUNGAI NIBONG BESAR,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>FATIMAH BINTI YUSOF</t>
+  </si>
+  <si>
+    <t>NO.11, LORONG NIPAH 10,
+TAMAN LIP SIN,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>JALEHA BINTI AHMAD</t>
+  </si>
+  <si>
+    <t>N0.LORONG NIPAH 13,
+TAMAN LIP SIN,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>MAZLIFAH BINTI ISMAIL</t>
+  </si>
+  <si>
+    <t>11-2-5, LUCKY GARDEN,
+LEBUH NIPAH,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>FARIDA BINTI OSMAN</t>
+  </si>
+  <si>
+    <t>BLOK 8-4-10,
+LEBUH NIPAH 3,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>HAFSAH NAJWA BINTI ABD MUTALIB</t>
+  </si>
+  <si>
+    <t>0175027463</t>
+  </si>
+  <si>
+    <t>NO.7-3, PANGSAPURI WAKAF SITI &amp; HAJJAH NORIJAH, SUNGAI NIBONG, PULAU PINANG.,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>ROSHASNANI BINTI ABD.RAHMAN</t>
+  </si>
+  <si>
+    <t>0134219781</t>
+  </si>
+  <si>
+    <t>NO 5-4 PANGSAPURI WAKAF,
+SITI DAN HAJJAH NORIJAH,
+SUNGAI NIBONG, 
+11900 BAYAN LEPAS,,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>ASMALIZA BINTI ALI</t>
+  </si>
+  <si>
+    <t>BLOK  8-4-,
+LEBUH NIPAH 3,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>KHAIRUL ANWAR BIN ZULKIFLI</t>
+  </si>
+  <si>
+    <t>MASJID AI-HIDAYAH BAYAN LEPAS</t>
+  </si>
+  <si>
+    <t>011-33338977</t>
+  </si>
+  <si>
+    <t>NO 1-4-4 LENGKOK MAHSURI BAYAN BARU 11950 BAYAN LEPAS ,11400 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>SUMBANGAN DARI QARYIAH-ASNAF</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>ADNAN BIN YAACOB</t>
+  </si>
+  <si>
+    <t>0198381062</t>
+  </si>
+  <si>
+    <t>6-4-4 LEBUH NIPAH 3,
+SUNGAI NIBONG BESAR,
+11900 BAYAN LEPAS,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>SUMBANGAN DARI QARYIAH-ANAK MASUK UNIVERSITI</t>
+  </si>
+  <si>
+    <t>2023-02-09</t>
+  </si>
+  <si>
+    <t>SUMBANGAN DARI QARYIAH-SAKIT/MASUK HOSPITAL</t>
+  </si>
+  <si>
+    <t>2023-02-10</t>
+  </si>
+  <si>
+    <t>MOHD ISMAIL BIN IBRAMSA</t>
+  </si>
+  <si>
+    <t>01110524702</t>
+  </si>
+  <si>
+    <t>15 JALAN NIPAH, TAMAN LIP SIN, SUNGAI DUA,,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>2023-02-24</t>
+  </si>
+  <si>
+    <t>MOHAMMED ZULKHIFLI BIN ISMAIL</t>
+  </si>
+  <si>
+    <t>0138992665</t>
+  </si>
+  <si>
+    <t>8, JALAN PANTAI JERJAK 4, SUNGAI NIBONG, 11900, PULAU PINANG,11900 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
   </si>
 </sst>
 </file>
@@ -499,7 +1168,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B6" sqref="B6"/>
@@ -626,8 +1295,12 @@
       <c r="N6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3">
         <v>0</v>
@@ -638,7 +1311,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3">
         <v>610913085319</v>
@@ -653,13 +1326,13 @@
         <v>21</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
@@ -667,13 +1340,3496 @@
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3">
+        <v>640101086137</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3">
+        <v>730601075206</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3">
+        <v>750508025026</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3">
+        <v>989107075405</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="B12" s="3">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3">
+        <v>960402075071</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="3">
+        <v>870907385295</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="B14" s="3">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="3">
+        <v>660308075783</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="B16" s="3">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="3">
+        <v>700331025198</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="B17" s="3">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="3">
+        <v>820619086025</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="B18" s="3">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="3">
+        <v>570920076089</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="B19" s="3">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="3">
+        <v>740621026005</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="B20" s="3">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="3">
+        <v>890911085023</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R20" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="B21" s="3">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="3">
+        <v>890911085023</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="B22" s="3">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="3">
+        <v>960402075071</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="B23" s="3">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="3">
+        <v>621226106249</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="B24" s="3">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="3">
+        <v>641010075891</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="B25" s="3">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="3">
+        <v>610516075467</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R25" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="B26" s="3">
+        <v>21</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="3">
+        <v>901105075729</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="B27" s="3">
+        <v>22</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="3">
+        <v>560516075181</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R27" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="B28" s="3">
+        <v>23</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="3">
+        <v>540128075130</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R28" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="B29" s="3">
+        <v>24</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="3">
+        <v>400829075382</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R29" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="B30" s="3">
+        <v>25</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="3">
+        <v>570512075650</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R30" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="B31" s="3">
+        <v>26</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="3">
+        <v>570925026144</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3">
+        <v>1</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R31" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="B32" s="3">
+        <v>27</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="3">
+        <v>500613075365</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3">
+        <v>1</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R32" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="B33" s="3">
+        <v>28</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="3">
+        <v>480422075455</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3">
+        <v>1</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R33" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="B34" s="3">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="3">
+        <v>540326025249</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3">
+        <v>1</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R34" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="B35" s="3">
+        <v>30</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="3">
+        <v>531005075240</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3">
+        <v>1</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R35" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="B36" s="3">
+        <v>31</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="3">
+        <v>420207075140</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3">
+        <v>1</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R36" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="B37" s="3">
+        <v>32</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="3">
+        <v>351012075216</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3">
+        <v>1</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R37" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="B38" s="3">
+        <v>33</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="3">
+        <v>390420075460</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3">
+        <v>1</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R38" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="B39" s="3">
+        <v>34</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="3">
+        <v>651130075449</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3">
+        <v>1</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R39" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="B40" s="3">
+        <v>35</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="3">
+        <v>630216075471</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3">
+        <v>1</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R40" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="B41" s="3">
+        <v>36</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="3">
+        <v>570329075994</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3">
+        <v>1</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R41" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="B42" s="3">
+        <v>37</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="3">
+        <v>460323085430</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3">
+        <v>1</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R42" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="B43" s="3">
+        <v>38</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="3">
+        <v>521112075431</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3">
+        <v>1</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R43" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="B44" s="3">
+        <v>39</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="3">
+        <v>610201075673</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3">
+        <v>1</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R44" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="B45" s="3">
+        <v>40</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="3">
+        <v>630114075411</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3">
+        <v>1</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R45" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="B46" s="3">
+        <v>41</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="3">
+        <v>611215075759</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3">
+        <v>1</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R46" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="B47" s="3">
+        <v>42</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="3">
+        <v>680104075237</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3">
+        <v>1</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R47" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="B48" s="3">
+        <v>43</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="3">
+        <v>570725075021</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3">
+        <v>1</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="B49" s="3">
+        <v>44</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="3">
+        <v>430310075092</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3">
+        <v>1</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="B50" s="3">
+        <v>45</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="3">
+        <v>781015075596</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3">
+        <v>1</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R50" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="B51" s="3">
+        <v>46</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="3">
+        <v>571009075770</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3">
+        <v>1</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R51" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="B52" s="3">
+        <v>47</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="3">
+        <v>710321075422</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3">
+        <v>1</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R52" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="B53" s="3">
+        <v>48</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" s="3">
+        <v>571104075728</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3">
+        <v>1</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R53" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="B54" s="3">
+        <v>49</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" s="3">
+        <v>491115125049</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3">
+        <v>1</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="B55" s="3">
+        <v>50</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="3">
+        <v>550110075422</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3">
+        <v>1</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R55" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="B56" s="3">
+        <v>51</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="3">
+        <v>640709075866</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3">
+        <v>1</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R56" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="B57" s="3">
+        <v>52</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="3">
+        <v>660309075048</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3">
+        <v>1</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R57" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="B58" s="3">
+        <v>53</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="3">
+        <v>470813075082</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3">
+        <v>1</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R58" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="B59" s="3">
+        <v>54</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="3">
+        <v>720606025508</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3">
+        <v>1</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R59" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="B60" s="3">
+        <v>55</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="3">
+        <v>400223075234</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3">
+        <v>1</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R60" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="B61" s="3">
+        <v>56</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" s="3">
+        <v>670527075520</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3">
+        <v>1</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R61" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="B62" s="3">
+        <v>57</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" s="3">
+        <v>800419125220</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3">
+        <v>1</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R62" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="B63" s="3">
+        <v>58</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" s="3">
+        <v>630526075602</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3">
+        <v>1</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R63" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="B64" s="3">
+        <v>59</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="3">
+        <v>550707025317</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I64" s="3">
+        <v>1</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3">
+        <v>1</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q64" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R64" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="B65" s="3">
+        <v>60</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="3">
+        <v>810801105377</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3">
+        <v>1</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q65" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R65" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="B66" s="3">
+        <v>61</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="3">
+        <v>580519075176</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3">
+        <v>1</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R66" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="B67" s="3">
+        <v>62</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="3">
+        <v>530203075300</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3">
+        <v>1</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q67" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R67" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="B68" s="3">
+        <v>63</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" s="3">
+        <v>511009075274</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I68" s="3">
+        <v>0</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3">
+        <v>1</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R68" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="B69" s="3">
+        <v>64</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69" s="3">
+        <v>801205075410</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3">
+        <v>1</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q69" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R69" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="B70" s="3">
+        <v>65</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" s="3">
+        <v>601122085676</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3">
+        <v>1</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q70" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R70" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="B71" s="3">
+        <v>66</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" s="3">
+        <v>630427076060</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I71" s="3">
+        <v>0</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3">
+        <v>1</v>
+      </c>
+      <c r="P71" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q71" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R71" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="B72" s="3">
+        <v>67</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D72" s="3">
+        <v>770518115218</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I72" s="3">
+        <v>1</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3">
+        <v>1</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R72" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="B73" s="3">
+        <v>68</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D73" s="3">
+        <v>790811086768</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I73" s="3">
+        <v>0</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3">
+        <v>1</v>
+      </c>
+      <c r="P73" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q73" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R73" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="B74" s="3">
+        <v>69</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" s="3">
+        <v>850204075815</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I74" s="3">
+        <v>2</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3">
+        <v>1</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R74" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="B75" s="3">
+        <v>70</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D75" s="3">
+        <v>740619075377</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3">
+        <v>1</v>
+      </c>
+      <c r="P75" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q75" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R75" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="B76" s="3">
+        <v>71</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="3">
+        <v>901105075729</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3">
+        <v>1</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R76" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="B77" s="3">
+        <v>72</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="3">
+        <v>450106025213</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3">
+        <v>1</v>
+      </c>
+      <c r="P77" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q77" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R77" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="B78" s="3">
+        <v>73</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D78" s="3">
+        <v>661007075645</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3">
+        <v>1</v>
+      </c>
+      <c r="P78" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q78" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R78" s="3">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
